--- a/src/test/java/ru/fds/tavrzcms3/testdata/client_legal_new.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/client_legal_new.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/ru/fds/tavrzcms3/testdata/client_legal_new.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/client_legal_new.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <r>
       <t xml:space="preserve">client_manager_id: </t>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Имя 4</t>
+  </si>
+  <si>
+    <t>ПАО</t>
+  </si>
+  <si>
+    <t>Имя 3</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,6 +509,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
@@ -517,6 +526,9 @@
       </c>
       <c r="C4" t="s">
         <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="2"/>
     </row>
